--- a/tables/Table_S11_heatmap.xlsx
+++ b/tables/Table_S11_heatmap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cong/Documents/GitHub/Taiji_ALTRA/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B35D14C-132D-1F42-8DD4-AD3E02C1EE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D062BAA6-5F47-3D43-9F35-4D62BE780DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{9EC8D6AD-2FA8-DF42-BCD5-7B05FB9DDF4B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{9EC8D6AD-2FA8-DF42-BCD5-7B05FB9DDF4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="143">
   <si>
     <t>B-0: CD24+CD27+CD11b+ switched memory</t>
   </si>
@@ -96,12 +96,6 @@
   </si>
   <si>
     <t>T-6: CD4+ memory</t>
-  </si>
-  <si>
-    <t>T-8: CD4+ CD25-high Treg</t>
-  </si>
-  <si>
-    <t>T-9: CD4+ CD25-low Treg</t>
   </si>
   <si>
     <t>MMP23B</t>
@@ -514,9 +508,6 @@
   </si>
   <si>
     <t>NK cell</t>
-  </si>
-  <si>
-    <t>Treg</t>
   </si>
 </sst>
 </file>
@@ -936,28 +927,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F34446-B820-F84B-968C-81F3B09A18DD}">
-  <dimension ref="A1:CE78"/>
+  <dimension ref="A1:CE77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -1019,16 +1010,10 @@
       <c r="U4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="B5" s="3">
         <v>-0.57693243348226197</v>
@@ -1090,16 +1075,10 @@
       <c r="U5" s="3">
         <v>-0.48749863996453102</v>
       </c>
-      <c r="V5" s="3">
-        <v>-0.561803218400455</v>
-      </c>
-      <c r="W5" s="3">
-        <v>-0.55151047373998396</v>
-      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3">
         <v>1.6132843742007501</v>
@@ -1161,16 +1140,10 @@
       <c r="U6" s="3">
         <v>-5.5209089048718803E-2</v>
       </c>
-      <c r="V6" s="3">
-        <v>-0.20724545965846899</v>
-      </c>
-      <c r="W6" s="3">
-        <v>-0.80082264993955199</v>
-      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3">
         <v>-0.85772252300985496</v>
@@ -1232,16 +1205,10 @@
       <c r="U7" s="3">
         <v>-0.71178742411408302</v>
       </c>
-      <c r="V7" s="3">
-        <v>-0.78710349779058497</v>
-      </c>
-      <c r="W7" s="3">
-        <v>-0.89888566692288896</v>
-      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3">
         <v>-0.44046503236508699</v>
@@ -1303,16 +1270,10 @@
       <c r="U8" s="3">
         <v>-0.28064323544750702</v>
       </c>
-      <c r="V8" s="3">
-        <v>-0.35845732309362999</v>
-      </c>
-      <c r="W8" s="3">
-        <v>-0.36164925433344502</v>
-      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3">
         <v>-0.72066622078374898</v>
@@ -1374,16 +1335,10 @@
       <c r="U9" s="3">
         <v>-0.400068301380336</v>
       </c>
-      <c r="V9" s="3">
-        <v>-0.38220033700745498</v>
-      </c>
-      <c r="W9" s="3">
-        <v>-1.4629970323708199</v>
-      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3">
         <v>-0.121372542024261</v>
@@ -1445,16 +1400,10 @@
       <c r="U10" s="3">
         <v>-0.16766706983258001</v>
       </c>
-      <c r="V10" s="3">
-        <v>-0.777809658400058</v>
-      </c>
-      <c r="W10" s="3">
-        <v>-1.01217408495699</v>
-      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3">
         <v>-0.73959146365149198</v>
@@ -1516,16 +1465,10 @@
       <c r="U11" s="3">
         <v>-0.47842598970847</v>
       </c>
-      <c r="V11" s="3">
-        <v>-0.60571061547601501</v>
-      </c>
-      <c r="W11" s="3">
-        <v>-0.56140485589650502</v>
-      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3">
         <v>-0.90101322044213605</v>
@@ -1587,16 +1530,10 @@
       <c r="U12" s="3">
         <v>-0.75194318325179399</v>
       </c>
-      <c r="V12" s="3">
-        <v>-0.82953663742570005</v>
-      </c>
-      <c r="W12" s="3">
-        <v>-0.88401043717546701</v>
-      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3">
         <v>-1.0209750383568099</v>
@@ -1658,16 +1595,10 @@
       <c r="U13" s="3">
         <v>-0.32281368470852601</v>
       </c>
-      <c r="V13" s="3">
-        <v>-0.60564572504410596</v>
-      </c>
-      <c r="W13" s="3">
-        <v>-0.950448340484087</v>
-      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3">
         <v>-0.85578151379699596</v>
@@ -1729,16 +1660,10 @@
       <c r="U14" s="3">
         <v>-0.29425196360536698</v>
       </c>
-      <c r="V14" s="3">
-        <v>-0.86427052066837395</v>
-      </c>
-      <c r="W14" s="3">
-        <v>-1.01664745992048</v>
-      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3">
         <v>-0.50702919356338605</v>
@@ -1800,16 +1725,10 @@
       <c r="U15" s="3">
         <v>-0.54929776996593505</v>
       </c>
-      <c r="V15" s="3">
-        <v>-0.582400943000556</v>
-      </c>
-      <c r="W15" s="3">
-        <v>-0.59199110231309804</v>
-      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>-0.33225214350175503</v>
@@ -1871,16 +1790,10 @@
       <c r="U16" s="3">
         <v>-0.40567410098197498</v>
       </c>
-      <c r="V16" s="3">
-        <v>-0.34494676690207399</v>
-      </c>
-      <c r="W16" s="3">
-        <v>-0.37144041861050298</v>
-      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>-5.9919901437384702E-2</v>
@@ -1942,16 +1855,10 @@
       <c r="U17" s="3">
         <v>-0.405323205409168</v>
       </c>
-      <c r="V17" s="3">
-        <v>-0.54783204885526104</v>
-      </c>
-      <c r="W17" s="3">
-        <v>-0.71545080285378404</v>
-      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3">
         <v>-0.74386337681602599</v>
@@ -2013,16 +1920,10 @@
       <c r="U18" s="3">
         <v>0.247907365844625</v>
       </c>
-      <c r="V18" s="3">
-        <v>-0.32076496822230799</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0.118719787571278</v>
-      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3">
         <v>1.92070056502551</v>
@@ -2084,16 +1985,10 @@
       <c r="U19" s="3">
         <v>-0.84418736920943604</v>
       </c>
-      <c r="V19" s="3">
-        <v>-0.21814839333521699</v>
-      </c>
-      <c r="W19" s="3">
-        <v>-0.539979711400011</v>
-      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3">
         <v>-1.31556543367328</v>
@@ -2155,16 +2050,10 @@
       <c r="U20" s="3">
         <v>-2.03691935012104E-2</v>
       </c>
-      <c r="V20" s="3">
-        <v>-0.226294506010388</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-0.482135717672866</v>
-      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3">
         <v>-0.93124943431166196</v>
@@ -2226,16 +2115,10 @@
       <c r="U21" s="3">
         <v>-0.31294096242701802</v>
       </c>
-      <c r="V21" s="3">
-        <v>-0.42518992607247502</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-0.722992480717216</v>
-      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" s="3">
         <v>-0.78571674197707497</v>
@@ -2297,16 +2180,10 @@
       <c r="U22" s="3">
         <v>-0.50860046744883003</v>
       </c>
-      <c r="V22" s="3">
-        <v>-0.35616201377486501</v>
-      </c>
-      <c r="W22" s="3">
-        <v>-0.45452849015902003</v>
-      </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="3">
         <v>0.19704940412205699</v>
@@ -2368,16 +2245,10 @@
       <c r="U23" s="3">
         <v>-0.35653555812305099</v>
       </c>
-      <c r="V23" s="3">
-        <v>-0.26872662539161801</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-0.51775759357344298</v>
-      </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3">
         <v>-0.597527976110519</v>
@@ -2439,16 +2310,10 @@
       <c r="U24" s="3">
         <v>-0.27376567066209201</v>
       </c>
-      <c r="V24" s="3">
-        <v>-0.59981223886128898</v>
-      </c>
-      <c r="W24" s="3">
-        <v>-0.52977927739951902</v>
-      </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3">
         <v>-1.1626844902954701</v>
@@ -2510,16 +2375,10 @@
       <c r="U25" s="3">
         <v>1.23935813737946</v>
       </c>
-      <c r="V25" s="3">
-        <v>-0.22320888979610901</v>
-      </c>
-      <c r="W25" s="3">
-        <v>0.44583745500905497</v>
-      </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3">
         <v>-0.65425877620292405</v>
@@ -2581,16 +2440,10 @@
       <c r="U26" s="3">
         <v>-0.53807567231119002</v>
       </c>
-      <c r="V26" s="3">
-        <v>-0.60808186090768401</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-0.62901537443365096</v>
-      </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3">
         <v>-1.01179382833235</v>
@@ -2652,16 +2505,10 @@
       <c r="U27" s="3">
         <v>-0.69865820895168496</v>
       </c>
-      <c r="V27" s="3">
-        <v>-0.11504219183776999</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-7.6505607053527699E-2</v>
-      </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" s="3">
         <v>-1.3829603220070701</v>
@@ -2723,16 +2570,10 @@
       <c r="U28" s="3">
         <v>0.17606187747197599</v>
       </c>
-      <c r="V28" s="3">
-        <v>1.9343231366244301E-2</v>
-      </c>
-      <c r="W28" s="3">
-        <v>-0.54228495739263205</v>
-      </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B29" s="3">
         <v>-0.72086288582120195</v>
@@ -2794,16 +2635,10 @@
       <c r="U29" s="3">
         <v>-0.76987375877380104</v>
       </c>
-      <c r="V29" s="3">
-        <v>-0.73279294094191505</v>
-      </c>
-      <c r="W29" s="3">
-        <v>-0.79472560299596695</v>
-      </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="3">
         <v>-0.31402619986211</v>
@@ -2865,16 +2700,10 @@
       <c r="U30" s="3">
         <v>-0.35451721823825899</v>
       </c>
-      <c r="V30" s="3">
-        <v>-0.37976655183051</v>
-      </c>
-      <c r="W30" s="3">
-        <v>-0.37507710420048901</v>
-      </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" s="3">
         <v>-0.58405326856985995</v>
@@ -2936,16 +2765,10 @@
       <c r="U31" s="3">
         <v>-0.49749554096612197</v>
       </c>
-      <c r="V31" s="3">
-        <v>0.44624472557837203</v>
-      </c>
-      <c r="W31" s="3">
-        <v>-0.42442076359969499</v>
-      </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32" s="3">
         <v>-0.63520437308509303</v>
@@ -3006,17 +2829,11 @@
       </c>
       <c r="U32" s="3">
         <v>-0.488780612985943</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-0.61360204198422397</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-0.59450671966313495</v>
       </c>
     </row>
     <row r="33" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3">
         <v>-0.81037215091572801</v>
@@ -3077,17 +2894,11 @@
       </c>
       <c r="U33" s="3">
         <v>-0.25086430398553</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-0.63768685504874301</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-0.73102285221697105</v>
       </c>
     </row>
     <row r="34" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" s="3">
         <v>1.8978213720101601E-2</v>
@@ -3148,271 +2959,265 @@
       </c>
       <c r="U34" s="3">
         <v>-0.365415028348682</v>
-      </c>
-      <c r="V34" s="3">
-        <v>-0.30908070284206701</v>
-      </c>
-      <c r="W34" s="3">
-        <v>-0.95599492978174605</v>
       </c>
     </row>
     <row r="36" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="Q37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="R37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="S37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="R37" s="2" t="s">
+      <c r="T37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S37" s="2" t="s">
+      <c r="U37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="T37" s="2" t="s">
+      <c r="V37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U37" s="2" t="s">
+      <c r="W37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="V37" s="2" t="s">
+      <c r="X37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W37" s="2" t="s">
+      <c r="Y37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="X37" s="2" t="s">
+      <c r="Z37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Y37" s="2" t="s">
+      <c r="AA37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Z37" s="2" t="s">
+      <c r="AB37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AA37" s="2" t="s">
+      <c r="AC37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AB37" s="2" t="s">
+      <c r="AD37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AC37" s="2" t="s">
+      <c r="AE37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AD37" s="2" t="s">
+      <c r="AF37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AE37" s="2" t="s">
+      <c r="AG37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AF37" s="2" t="s">
+      <c r="AH37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AG37" s="2" t="s">
+      <c r="AI37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AH37" s="2" t="s">
+      <c r="AJ37" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AI37" s="2" t="s">
+      <c r="AK37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AJ37" s="2" t="s">
+      <c r="AL37" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AK37" s="2" t="s">
+      <c r="AM37" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AL37" s="2" t="s">
+      <c r="AN37" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AM37" s="2" t="s">
+      <c r="AO37" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AN37" s="2" t="s">
+      <c r="AP37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AO37" s="2" t="s">
+      <c r="AQ37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AP37" s="2" t="s">
+      <c r="AR37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AQ37" s="2" t="s">
+      <c r="AS37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AR37" s="2" t="s">
+      <c r="AT37" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AS37" s="2" t="s">
+      <c r="AU37" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AT37" s="2" t="s">
+      <c r="AV37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AU37" s="2" t="s">
+      <c r="AW37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AV37" s="2" t="s">
+      <c r="AX37" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AW37" s="2" t="s">
+      <c r="AY37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AX37" s="2" t="s">
+      <c r="AZ37" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AY37" s="2" t="s">
+      <c r="BA37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AZ37" s="2" t="s">
+      <c r="BB37" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BA37" s="2" t="s">
+      <c r="BC37" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BB37" s="2" t="s">
+      <c r="BD37" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BC37" s="2" t="s">
+      <c r="BE37" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BD37" s="2" t="s">
+      <c r="BF37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="BE37" s="2" t="s">
+      <c r="BG37" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="BF37" s="2" t="s">
+      <c r="BH37" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="BG37" s="2" t="s">
+      <c r="BI37" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="BH37" s="2" t="s">
+      <c r="BJ37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BI37" s="2" t="s">
+      <c r="BK37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BJ37" s="2" t="s">
+      <c r="BL37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="BK37" s="2" t="s">
+      <c r="BM37" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="BL37" s="2" t="s">
+      <c r="BN37" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="BM37" s="2" t="s">
+      <c r="BO37" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BN37" s="2" t="s">
+      <c r="BP37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="BO37" s="2" t="s">
+      <c r="BQ37" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BP37" s="2" t="s">
+      <c r="BR37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BQ37" s="2" t="s">
+      <c r="BS37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="BR37" s="2" t="s">
+      <c r="BT37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BS37" s="2" t="s">
+      <c r="BU37" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="BT37" s="2" t="s">
+      <c r="BV37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="BU37" s="2" t="s">
+      <c r="BW37" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="BV37" s="2" t="s">
+      <c r="BX37" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="BW37" s="2" t="s">
+      <c r="BY37" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BX37" s="2" t="s">
+      <c r="BZ37" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BY37" s="2" t="s">
+      <c r="CA37" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="BZ37" s="2" t="s">
+      <c r="CB37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="CA37" s="2" t="s">
+      <c r="CC37" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="CB37" s="2" t="s">
+      <c r="CD37" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="CC37" s="2" t="s">
+      <c r="CE37" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="CD37" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="CE37" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B38" s="3">
         <v>-0.60504190689568804</v>
@@ -3663,7 +3468,7 @@
     </row>
     <row r="39" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B39" s="3">
         <v>0.27789155207646998</v>
@@ -3914,7 +3719,7 @@
     </row>
     <row r="40" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B40" s="3">
         <v>-0.83350659835945295</v>
@@ -4165,7 +3970,7 @@
     </row>
     <row r="41" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B41" s="3">
         <v>-0.75731227765244502</v>
@@ -4416,7 +4221,7 @@
     </row>
     <row r="42" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B42" s="3">
         <v>-1.5353295345795801</v>
@@ -4667,7 +4472,7 @@
     </row>
     <row r="43" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B43" s="3">
         <v>0.20684943446144999</v>
@@ -4918,7 +4723,7 @@
     </row>
     <row r="44" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B44" s="3">
         <v>0.23806867155310399</v>
@@ -5169,7 +4974,7 @@
     </row>
     <row r="45" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B45" s="3">
         <v>-0.43579329497147201</v>
@@ -5420,7 +5225,7 @@
     </row>
     <row r="46" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B46" s="3">
         <v>-0.63459106026625101</v>
@@ -5671,7 +5476,7 @@
     </row>
     <row r="47" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B47" s="3">
         <v>-0.3819248670873</v>
@@ -5922,7 +5727,7 @@
     </row>
     <row r="48" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B48" s="3">
         <v>-0.58366387794492003</v>
@@ -6173,7 +5978,7 @@
     </row>
     <row r="49" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B49" s="3">
         <v>-0.47794915153482898</v>
@@ -6424,7 +6229,7 @@
     </row>
     <row r="50" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B50" s="3">
         <v>-0.56254485510365904</v>
@@ -6675,7 +6480,7 @@
     </row>
     <row r="51" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B51" s="3">
         <v>-0.60473423895205103</v>
@@ -6926,7 +6731,7 @@
     </row>
     <row r="52" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B52" s="3">
         <v>4.1127530876194598E-2</v>
@@ -7177,7 +6982,7 @@
     </row>
     <row r="53" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B53" s="3">
         <v>-0.73888158586686703</v>
@@ -7428,7 +7233,7 @@
     </row>
     <row r="54" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B54" s="3">
         <v>-0.39629659282529001</v>
@@ -7679,7 +7484,7 @@
     </row>
     <row r="55" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B55" s="3">
         <v>-0.23246840632566501</v>
@@ -7930,7 +7735,7 @@
     </row>
     <row r="56" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B56" s="3">
         <v>-0.51570667726446195</v>
@@ -8181,7 +7986,7 @@
     </row>
     <row r="57" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B57" s="3">
         <v>-4.9867911921380299E-2</v>
@@ -8432,7 +8237,7 @@
     </row>
     <row r="58" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B58" s="3">
         <v>0.42298051110130402</v>
@@ -8683,7 +8488,7 @@
     </row>
     <row r="59" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B59" s="3">
         <v>-0.48881843953656801</v>
@@ -8934,7 +8739,7 @@
     </row>
     <row r="60" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B60" s="3">
         <v>-1.3394547739921401</v>
@@ -9185,7 +8990,7 @@
     </row>
     <row r="61" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B61" s="3">
         <v>-0.27516180122072897</v>
@@ -9436,7 +9241,7 @@
     </row>
     <row r="62" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B62" s="3">
         <v>-9.0721341761731994E-2</v>
@@ -9687,7 +9492,7 @@
     </row>
     <row r="63" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B63" s="3">
         <v>-0.20847980974166</v>
@@ -9938,7 +9743,7 @@
     </row>
     <row r="64" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B64" s="3">
         <v>-0.136781072811681</v>
@@ -10189,7 +9994,7 @@
     </row>
     <row r="65" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B65" s="3">
         <v>-0.30439168117155702</v>
@@ -10440,7 +10245,7 @@
     </row>
     <row r="66" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B66" s="3">
         <v>-0.66787849184255599</v>
@@ -10691,7 +10496,7 @@
     </row>
     <row r="67" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B67" s="3">
         <v>-0.35288283710554802</v>
@@ -10942,261 +10747,261 @@
     </row>
     <row r="69" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="H70" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y70" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z70" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA70" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB70" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC70" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD70" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG70" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH70" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS70" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT70" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW70" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX70" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY70" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ70" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC70" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD70" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE70" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BG70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BJ70" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK70" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL70" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM70" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BN70" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ70" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BR70" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BS70" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT70" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BU70" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV70" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BW70" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BX70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BY70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BZ70" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P70" s="2" t="s">
+      <c r="CA70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB70" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Q70" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R70" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="T70" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U70" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V70" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W70" s="2" t="s">
+      <c r="CC70" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="X70" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y70" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z70" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA70" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC70" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE70" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF70" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG70" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH70" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI70" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ70" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK70" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL70" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM70" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN70" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO70" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP70" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ70" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR70" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS70" s="2" t="s">
+      <c r="CD70" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AT70" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU70" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV70" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AW70" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX70" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AY70" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AZ70" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA70" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB70" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC70" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BD70" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BE70" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BF70" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG70" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BH70" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BI70" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ70" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BK70" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BL70" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="BM70" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN70" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="BO70" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BP70" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BQ70" s="2" t="s">
+      <c r="CE70" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="BR70" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="BS70" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BT70" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BU70" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BV70" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="BW70" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BX70" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BY70" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BZ70" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="CA70" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CB70" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CC70" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD70" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="CE70" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B71" s="3">
         <v>2.64971988957848E-2</v>
@@ -11447,7 +11252,7 @@
     </row>
     <row r="72" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B72" s="3">
         <v>0.281629594812491</v>
@@ -11698,7 +11503,7 @@
     </row>
     <row r="73" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B73" s="3">
         <v>-0.37006882211542202</v>
@@ -11949,7 +11754,7 @@
     </row>
     <row r="74" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B74" s="3">
         <v>-3.0658204088574399E-2</v>
@@ -12200,7 +12005,7 @@
     </row>
     <row r="75" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B75" s="3">
         <v>0.24610814676140999</v>
@@ -12451,7 +12256,7 @@
     </row>
     <row r="76" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B76" s="3">
         <v>-0.264888271025013</v>
@@ -12702,7 +12507,7 @@
     </row>
     <row r="77" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B77" s="3">
         <v>0.16678317954199501</v>
@@ -12948,257 +12753,6 @@
         <v>1.1306156328944199</v>
       </c>
       <c r="CE77" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B78" s="3">
-        <v>-1.3602060719264101E-2</v>
-      </c>
-      <c r="C78" s="3">
-        <v>-0.39958185835988302</v>
-      </c>
-      <c r="D78" s="3">
-        <v>-0.24442403754467101</v>
-      </c>
-      <c r="E78" s="3">
-        <v>-0.54494265661429298</v>
-      </c>
-      <c r="F78" s="3">
-        <v>-7.0345674343522402E-2</v>
-      </c>
-      <c r="G78" s="3">
-        <v>-0.54486986818095595</v>
-      </c>
-      <c r="H78" s="3">
-        <v>-0.18556374015874899</v>
-      </c>
-      <c r="I78" s="3">
-        <v>-0.10027137205962899</v>
-      </c>
-      <c r="J78" s="3">
-        <v>-0.21073668398811099</v>
-      </c>
-      <c r="K78" s="3">
-        <v>-0.118568129148725</v>
-      </c>
-      <c r="L78" s="3">
-        <v>0.120570919305236</v>
-      </c>
-      <c r="M78" s="3">
-        <v>-0.51615912402485198</v>
-      </c>
-      <c r="N78" s="3">
-        <v>-1.50048996841694E-2</v>
-      </c>
-      <c r="O78" s="3">
-        <v>4.54515927080498E-3</v>
-      </c>
-      <c r="P78" s="3">
-        <v>-0.31916220943187001</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>0.13294304906712001</v>
-      </c>
-      <c r="R78" s="3">
-        <v>-3.6694736215885801E-2</v>
-      </c>
-      <c r="S78" s="3">
-        <v>-0.107627830517161</v>
-      </c>
-      <c r="T78" s="3">
-        <v>-1</v>
-      </c>
-      <c r="U78" s="3">
-        <v>0.26475557140293499</v>
-      </c>
-      <c r="V78" s="3">
-        <v>-2.74011266766244E-2</v>
-      </c>
-      <c r="W78" s="3">
-        <v>0.47696010396854199</v>
-      </c>
-      <c r="X78" s="3">
-        <v>0.94540506533244295</v>
-      </c>
-      <c r="Y78" s="3">
-        <v>-0.14267135768713701</v>
-      </c>
-      <c r="Z78" s="3">
-        <v>-0.53549775524907495</v>
-      </c>
-      <c r="AA78" s="3">
-        <v>1.9900568681092801E-2</v>
-      </c>
-      <c r="AB78" s="3">
-        <v>-0.28100481512459702</v>
-      </c>
-      <c r="AC78" s="3">
-        <v>0.12386054978988401</v>
-      </c>
-      <c r="AD78" s="3">
-        <v>-0.74058196946575305</v>
-      </c>
-      <c r="AE78" s="3">
-        <v>-7.8571370329527601E-2</v>
-      </c>
-      <c r="AF78" s="3">
-        <v>-0.13035904114653901</v>
-      </c>
-      <c r="AG78" s="3">
-        <v>-0.502023460797134</v>
-      </c>
-      <c r="AH78" s="3">
-        <v>-0.46746308257546298</v>
-      </c>
-      <c r="AI78" s="3">
-        <v>-0.150669083457627</v>
-      </c>
-      <c r="AJ78" s="3">
-        <v>0.37045336081421798</v>
-      </c>
-      <c r="AK78" s="3">
-        <v>0.36781073909485401</v>
-      </c>
-      <c r="AL78" s="3">
-        <v>-0.47289789178061797</v>
-      </c>
-      <c r="AM78" s="3">
-        <v>1.15394330908258E-2</v>
-      </c>
-      <c r="AN78" s="3">
-        <v>-0.48204311857141302</v>
-      </c>
-      <c r="AO78" s="3">
-        <v>0.32084554901703299</v>
-      </c>
-      <c r="AP78" s="3">
-        <v>5.6227022387535602E-2</v>
-      </c>
-      <c r="AQ78" s="3">
-        <v>0.21663616749416201</v>
-      </c>
-      <c r="AR78" s="3">
-        <v>-0.52275542890680804</v>
-      </c>
-      <c r="AS78" s="3">
-        <v>0.60515862829292799</v>
-      </c>
-      <c r="AT78" s="3">
-        <v>-0.12807290815717201</v>
-      </c>
-      <c r="AU78" s="3">
-        <v>0.63084454530295697</v>
-      </c>
-      <c r="AV78" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AW78" s="3">
-        <v>0.121400531039233</v>
-      </c>
-      <c r="AX78" s="3">
-        <v>-0.41403666587326499</v>
-      </c>
-      <c r="AY78" s="3">
-        <v>0.204931064880331</v>
-      </c>
-      <c r="AZ78" s="3">
-        <v>1.59179706926179</v>
-      </c>
-      <c r="BA78" s="3">
-        <v>-0.13881616753064199</v>
-      </c>
-      <c r="BB78" s="3">
-        <v>0.24845298813497599</v>
-      </c>
-      <c r="BC78" s="3">
-        <v>0.82555864549404301</v>
-      </c>
-      <c r="BD78" s="3">
-        <v>-0.229526931412564</v>
-      </c>
-      <c r="BE78" s="3">
-        <v>-0.40467674930368103</v>
-      </c>
-      <c r="BF78" s="3">
-        <v>0.26615809517609301</v>
-      </c>
-      <c r="BG78" s="3">
-        <v>-0.46924541327260499</v>
-      </c>
-      <c r="BH78" s="3">
-        <v>0.357900205737674</v>
-      </c>
-      <c r="BI78" s="3">
-        <v>-0.223963284128359</v>
-      </c>
-      <c r="BJ78" s="3">
-        <v>-0.124037267458976</v>
-      </c>
-      <c r="BK78" s="3">
-        <v>-0.42387069287997298</v>
-      </c>
-      <c r="BL78" s="3">
-        <v>-0.31296051823360999</v>
-      </c>
-      <c r="BM78" s="3">
-        <v>1.12330632135736</v>
-      </c>
-      <c r="BN78" s="3">
-        <v>0.101841144638875</v>
-      </c>
-      <c r="BO78" s="3">
-        <v>9.2343699616345698E-2</v>
-      </c>
-      <c r="BP78" s="3">
-        <v>0.25376767780324999</v>
-      </c>
-      <c r="BQ78" s="3">
-        <v>0.41940346851723298</v>
-      </c>
-      <c r="BR78" s="3">
-        <v>-0.51964657736443998</v>
-      </c>
-      <c r="BS78" s="3">
-        <v>0.28292202234490099</v>
-      </c>
-      <c r="BT78" s="3">
-        <v>-0.103338403209698</v>
-      </c>
-      <c r="BU78" s="3">
-        <v>-0.31527081808600999</v>
-      </c>
-      <c r="BV78" s="3">
-        <v>-0.55175024434225595</v>
-      </c>
-      <c r="BW78" s="3">
-        <v>0.19739429476356901</v>
-      </c>
-      <c r="BX78" s="3">
-        <v>2</v>
-      </c>
-      <c r="BY78" s="3">
-        <v>-1.9922051677628099E-2</v>
-      </c>
-      <c r="BZ78" s="3">
-        <v>2</v>
-      </c>
-      <c r="CA78" s="3">
-        <v>1.3150809961341701</v>
-      </c>
-      <c r="CB78" s="3">
-        <v>-1</v>
-      </c>
-      <c r="CC78" s="3">
-        <v>-1</v>
-      </c>
-      <c r="CD78" s="3">
-        <v>-0.39309003689328997</v>
-      </c>
-      <c r="CE78" s="3">
         <v>-1</v>
       </c>
     </row>
